--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76791.94231791017</v>
+        <v>14290872.49872578</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76791.94231791017</v>
+        <v>14290872.49872578</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4417.557966157309</v>
+        <v>435368.5421811781</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4417.557966157309</v>
+        <v>435368.5421811781</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112801279.401393</v>
+        <v>45891533.7774136</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9624.15377664534</v>
+        <v>1097341.586321801</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18028.38550453683</v>
+        <v>2007965.811260651</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26432.61723242831</v>
+        <v>2918590.036199504</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34983.33357880161</v>
+        <v>3838942.31768533</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43489.62325850827</v>
+        <v>4750453.69250449</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51520.67590916259</v>
+        <v>5640234.621210905</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59756.73276842772</v>
+        <v>6551745.996030059</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67992.78962769284</v>
+        <v>7463257.370849217</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>75938.98396008376</v>
+        <v>8351440.363129852</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83961.00798526171</v>
+        <v>9260771.607644387</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>91888.60673830443</v>
+        <v>10153261.68590658</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99800.0967189634</v>
+        <v>11061990.44529224</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>107707.8493283254</v>
+        <v>11970873.18133351</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>115924.4397390157</v>
+        <v>12835127.10827256</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>124133.1971529164</v>
+        <v>13701154.96933731</v>
       </c>
     </row>
   </sheetData>
